--- a/DOM_Banner/output/dept_banner/Talha Riaz_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Talha Riaz_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,135 +395,130 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>issn_l</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>url</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>pdf_url</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>license</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>version</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>first_page</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>last_page</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>volume</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>issue</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>issue</t>
+          <t>is_oa</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>is_oa</t>
+          <t>is_oa_anywhere</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>is_oa_anywhere</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>oa_status</t>
+          <t>oa_url</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>oa_url</t>
+          <t>any_repository_has_fulltext</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>any_repository_has_fulltext</t>
+          <t>language</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>grants</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>grants</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>cited_by_count</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>publication_year</t>
+          <t>cited_by_api_url</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>cited_by_api_url</t>
+          <t>ids</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>ids</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>doi</t>
+          <t>type</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>referenced_works</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>referenced_works</t>
+          <t>related_works</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>related_works</t>
+          <t>is_paratext</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>is_retracted</t>
         </is>
@@ -560,146 +555,141 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of bone and joint infection</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S4210240356</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2206-3552</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.5194/jbji-7-75-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>https://jbji.copernicus.org/articles/7/75/2022/jbji-7-75-2022.pdf</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>https://jbji.copernicus.org/articles/7/75/2022/jbji-7-75-2022.pdf</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4223562599</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4223562599", doi = "https://doi.org/10.5194/jbji-7-75-2022", pmid = "https://pubmed.ncbi.nlm.nih.gov/35464149")</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.5194/jbji-7-75-2022</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://jbji.copernicus.org/articles/7/75/2022/jbji-7-75-2022.pdf</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>cc-by</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://jbji.copernicus.org/articles/7/75/2022/jbji-7-75-2022.pdf</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4223562599</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4223562599", doi = "https://doi.org/10.5194/jbji-7-75-2022", pmid = "https://pubmed.ncbi.nlm.nih.gov/35464149")</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5194/jbji-7-75-2022</t>
+          <t>article</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
         <is>
           <t>c("https://openalex.org/W832481836", "https://openalex.org/W2027296398", "https://openalex.org/W2042864849", "https://openalex.org/W2062806732", "https://openalex.org/W2082824638", "https://openalex.org/W2082999218", "https://openalex.org/W2111956140", "https://openalex.org/W2127744836", "https://openalex.org/W2143687304", "https://openalex.org/W2148816117", "https://openalex.org/W2166282078", "https://openalex.org/W2342795838", "https://openalex.org/W2592052063", "https://openalex.org/W2784047042", 
 "https://openalex.org/W2910182600", "https://openalex.org/W2964942421", "https://openalex.org/W3046748150", "https://openalex.org/W3203608734", "https://openalex.org/W4253406380", "https://openalex.org/W4386856362")</t>
         </is>
       </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W116057145", "https://openalex.org/W2005594846", "https://openalex.org/W1967818116", "https://openalex.org/W3092701095", "https://openalex.org/W2468232659", "https://openalex.org/W2379459027", "https://openalex.org/W4239893695", "https://openalex.org/W2152345459", "https://openalex.org/W2377277576", "https://openalex.org/W2340524573")</t>
+        </is>
+      </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W116057145", "https://openalex.org/W2005594846", "https://openalex.org/W1967818116", "https://openalex.org/W3092701095", "https://openalex.org/W2468232659", "https://openalex.org/W2379459027", "https://openalex.org/W4239893695", "https://openalex.org/W2152345459", "https://openalex.org/W2377277576", "https://openalex.org/W2340524573")</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
@@ -748,130 +738,125 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/b978-0-323-69578-7.00013-2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W3174002398</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W3174002398", doi = "https://doi.org/10.1016/b978-0-323-69578-7.00013-2", mag = "3174002398")</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/b978-0-323-69578-7.00013-2</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>172</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>191</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W3174002398</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W3174002398", doi = "https://doi.org/10.1016/b978-0-323-69578-7.00013-2", mag = "3174002398")</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-323-69578-7.00013-2</t>
+          <t>book-chapter</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>book-chapter</t>
+          <t>c("https://openalex.org/W2079575346", "https://openalex.org/W2111956140", "https://openalex.org/W2603427688", "https://openalex.org/W2603843244", "https://openalex.org/W4232958965")</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2079575346", "https://openalex.org/W2111956140", "https://openalex.org/W2603427688", "https://openalex.org/W2603843244", "https://openalex.org/W4232958965")</t>
+          <t>c("https://openalex.org/W2025084438", "https://openalex.org/W2954081418", "https://openalex.org/W3025662936", "https://openalex.org/W1987237571", "https://openalex.org/W2488982737", "https://openalex.org/W2129206436", "https://openalex.org/W1961724731", "https://openalex.org/W4313045215", "https://openalex.org/W46219576", "https://openalex.org/W1515250828")</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2025084438", "https://openalex.org/W2954081418", "https://openalex.org/W3025662936", "https://openalex.org/W1987237571", "https://openalex.org/W2488982737", "https://openalex.org/W2129206436", "https://openalex.org/W1961724731", "https://openalex.org/W4313045215", "https://openalex.org/W46219576", "https://openalex.org/W1515250828")</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
@@ -937,130 +922,125 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/b978-0-323-69578-7.01002-4</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>vii</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4200008540</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4200008540", doi = "https://doi.org/10.1016/b978-0-323-69578-7.01002-4")</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/b978-0-323-69578-7.01002-4</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>vii</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4200008540</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4200008540", doi = "https://doi.org/10.1016/b978-0-323-69578-7.01002-4")</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-323-69578-7.01002-4</t>
+          <t>book-chapter</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>book-chapter</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>c("https://openalex.org/W2130043461", "https://openalex.org/W2748952813", "https://openalex.org/W2899084033", "https://openalex.org/W2390279801", "https://openalex.org/W2358668433", "https://openalex.org/W2376932109", "https://openalex.org/W2382290278", "https://openalex.org/W2350741829", "https://openalex.org/W2001405890", "https://openalex.org/W2530322880")</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2130043461", "https://openalex.org/W2748952813", "https://openalex.org/W2899084033", "https://openalex.org/W2390279801", "https://openalex.org/W2358668433", "https://openalex.org/W2376932109", "https://openalex.org/W2382290278", "https://openalex.org/W2350741829", "https://openalex.org/W2001405890", "https://openalex.org/W2530322880")</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
@@ -1089,7 +1069,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Abstract. Background: Aspiration of intervertebral disc space is often done to confirm the diagnosis of native vertebral osteomyelitis. A study has not been done examining the utility of cell counts and differentials of the aspirated fluid in diagnosing native vertebral osteomyelitis (NVO). Methods: In this feasibility study, we prospectively enrolled patients with a suspected diagnosis of NVO referred to the Division of Neuroradiology for image-guided needle aspiration of the intervertebral disc. In this study, manual cell count was done on the aspirated fluid, followed by a differential cytospin technique and touch prep. We obtained demographic, lab, and microbiologic data and used the receiver operating curve (ROC) for statistical analysis. Results: Over 12 months, we performed 17 aspirates on 14 patients. The median age was 70.5 years (range: 45–77). The median manual cell count on the aspirated fluid was 52 cells µL−1 (range: 0–6656), the median neutrophil percentage on the touch prep slide was 73 % (range: 5 %–100 %), and the median neutrophil percentage on the cytospin slide was 82 % (range: 0 %–100 %). Routine bacterial cultures were positive in five cases, and the 16S ribosomal RNA gene polymerase chain reaction was positive in two cases. The optimal cutoff for a cell count of 104 total nucleated cells offered a sensitivity and specificity of 86 %, and a neutrophil cutoff of 83 % was associated with a 71 % sensitivity and specificity. Conclusion: An image-guided aspirated specimen leukocyte differential of ≥83 % neutrophils or a leukocyte count of ≥104 µL−1 was a sensitive and specific test for diagnosing patients with suspected NVO. Additionally, more extensive studies are warranted to confirm the findings.</t>
+          <t>Background: Aspiration of intervertebral disc space is often done to confirm the diagnosis of native vertebral osteomyelitis. A study has not been done examining the utility of cell counts and differentials of the aspirated fluid in diagnosing native vertebral osteomyelitis (NVO). Methods: In this feasibility study, we prospectively enrolled patients with a suspected diagnosis of NVO referred to the Division of Neuroradiology for image-guided needle aspiration of the intervertebral disc. In this study, manual cell count was done on the aspirated fluid, followed by a differential cytospin technique and touch prep. We obtained demographic, lab, and microbiologic data and used the receiver operating curve (ROC) for statistical analysis. Results: Over 12 months, we performed 17 aspirates on 14 patients. The median age was 70.5 years (range: 45-77). The median manual cell count on the aspirated fluid was 52 cells µL-1 (range: 0-6656), the median neutrophil percentage on the touch prep slide was 73 % (range: 5 %-100 %), and the median neutrophil percentage on the cytospin slide was 82 % (range: 0 %-100 %). Routine bacterial cultures were positive in five cases, and the 16S ribosomal RNA gene polymerase chain reaction was positive in two cases. The optimal cutoff for a cell count of 104 total nucleated cells offered a sensitivity and specificity of 86 %, and a neutrophil cutoff of 83 % was associated with a 71 % sensitivity and specificity. Conclusion: An image-guided aspirated specimen leukocyte differential of ≥83 % neutrophils or a leukocyte count of ≥104 µL-1 was a sensitive and specific test for diagnosing patients with suspected NVO. Additionally, more extensive studies are warranted to confirm the findings.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1109,136 +1089,131 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2206-3552</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2206-3552</t>
+          <t>https://doi.org/10.5194/jbji-7-213-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>https://jbji.copernicus.org/articles/7/213/2022/jbji-7-213-2022.pdf</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>https://jbji.copernicus.org/articles/7/213/2022/jbji-7-213-2022.pdf</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4306945079</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4306945079", doi = "https://doi.org/10.5194/jbji-7-213-2022", pmid = "https://pubmed.ncbi.nlm.nih.gov/36415688")</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
           <t>https://doi.org/10.5194/jbji-7-213-2022</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>https://jbji.copernicus.org/articles/7/213/2022/jbji-7-213-2022.pdf</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>cc-by</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>219</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>https://jbji.copernicus.org/articles/7/213/2022/jbji-7-213-2022.pdf</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4306945079</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4306945079", doi = "https://doi.org/10.5194/jbji-7-213-2022", pmid = "https://pubmed.ncbi.nlm.nih.gov/36415688")</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5194/jbji-7-213-2022</t>
+          <t>article</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
         <is>
           <t>c("https://openalex.org/W1843190175", "https://openalex.org/W1994778610", "https://openalex.org/W1998045453", "https://openalex.org/W2028180332", "https://openalex.org/W2087201644", "https://openalex.org/W2218589167", "https://openalex.org/W2281149143", "https://openalex.org/W2287532490", "https://openalex.org/W2398905109", "https://openalex.org/W2602741961", "https://openalex.org/W2794827197", "https://openalex.org/W2803551559", "https://openalex.org/W2903468212", "https://openalex.org/W3033022113", 
 "https://openalex.org/W3039419443", "https://openalex.org/W3094512496", "https://openalex.org/W3097587239", "https://openalex.org/W4225605513", "https://openalex.org/W4239549347")</t>
         </is>
       </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W2613422499", "https://openalex.org/W1598281717", "https://openalex.org/W2035747955", "https://openalex.org/W1981468016", "https://openalex.org/W2409581547", "https://openalex.org/W4239429891", "https://openalex.org/W2399321003", "https://openalex.org/W3109524761", "https://openalex.org/W4380148490", "https://openalex.org/W2054679057")</t>
+        </is>
+      </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W1982500885", "https://openalex.org/W2372756639", "https://openalex.org/W1985361295", "https://openalex.org/W1983911923", "https://openalex.org/W2977439968", "https://openalex.org/W3121679947", "https://openalex.org/W2373140302", "https://openalex.org/W2147601752", "https://openalex.org/W1596288211", "https://openalex.org/W2047967234")</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>

--- a/DOM_Banner/output/dept_banner/Talha Riaz_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Talha Riaz_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,70 +365,75 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -442,70 +447,79 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Internal Medicine, Cleveland Clinic Akron General
+Medical Center, Akron, Ohio, USA; Department of Radiology, University Hospitals Cleveland Medical
+Center, Cleveland, Ohio, USA; College of Medicine, University of Lagos, Lagos, Nigeria; Department of Internal Medicine, Cleveland Clinic Akron General
+Medical Center, Akron, Ohio, USA; Division of Infectious Diseases, University of Arizona, Tucson,
+Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4223562599</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Vertebral osteomyelitis and epidural abscess due to &amp;amp;lt;i&amp;amp;gt;Listeria monocytogenes&amp;amp;lt;/i&amp;amp;gt; – case report and review of literature</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-04-13</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Journal of bone and joint infection</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://doi.org/10.5194/jbji-7-75-2022</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35464149</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://doi.org/10.5194/jbji-7-75-2022</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -519,70 +533,75 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3174002398</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Bone and Joint Infections</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Elsevier eBooks</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/b978-0-323-69578-7.00013-2</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/b978-0-323-69578-7.00013-2</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -596,70 +615,75 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Division of Infectious Diseases, Mayo Clinic, Rochester, MN, USA; Associate Professor, Section of Hospital Medicine, University of Nebraska Medical Center, Omaha, NE, USA; Chief Quality Officer, Nebraska Medicine, Omaha, NE, USA; Head, Section of Neurologic Infections, Infectious Diseases, Cleveland Clinic Foundation, Cleveland, OH, USA; Associate Professor of Medicine, Division of Infectious Diseases, Oregon Health &amp; Science University, Portland, OR, USA; Assistant Professor of Medicine, Divisions of Infectious Diseases &amp; Pulmonary and Critical Care Medicine, University of Nebraska Medical Center, Omaha, NE, USA; Associate Director of Infection Control and Hospital Epidemiology, Nebraska Medicine, Omaha, NE, USA; Head, Department of Infectious Diseases, Instituto Nacional de Cancerologia, Mexico City, Mexico; Division of Infectious Diseases, Mayo Clinic, Rochester, MN, USA; Chief, Infectious Disease Section, Minneapolis VA Health Care System, Associate Professor of Medicine, University of Minnesota, Minneapolis, MN, USA; Associate Professor of Medicine, Emory University School of Medicine Division of Infectious Diseases, Atlanta, GA, USA; Department of Infectious Diseases, University of Salerno, Italy; Department of Internal Medicine and Radboud Center for Infectious Diseases, Radboud University Medical Center, Nijmegen, The Netherlands; Faculty of Medicine, Research Group of Immunology and Biochemistry, Hass​elt University, Hasselt, Belgium; Associate Professor of Medicine, Mayo Clinic Alix School of Medicine, Rochester, MN, USA; Associate Professor of Medicine, Division of Infectious Diseases, Joint Appointment, Division of Pulmonary and Critical Care Medicine, Mayo Clinic, Rochester, MN, USA; Professor, Mayo Clinic College of Medicine and Science, Division of Infectious Diseases, Mayo Clinic Arizona, Phoenix, AZ, USA; Assistant Professor of MedicineDepartment of Infectious Diseases, University of Salerno, Italy; ; Division of Infectious Diseases, Mayo Clinic, Rochester, MN, USA; Consultant Dermatologist, Dermatology-Oncology Clinic Research Division Universidad Nacional Autónoma de México, Mexico City, Mexico; Director, Initial ProcessingCo-Director, BacteriologyDepartment of Laboratory Medicine and Pathology, Mayo Clinic, Rochester, MN, USA; Professor of MedicineDivision of Infectious Diseases, University of California San Francisco, San Francisco, CA, USA; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4200008540</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Contributors</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Elsevier eBooks</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/b978-0-323-69578-7.01002-4</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/b978-0-323-69578-7.01002-4</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -673,70 +697,81 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Division of Infectious Diseases, Mayo Clinic, Rochester, Minnesota,
+USA; Division of Infectious Diseases, University of Arizona Medical Center,
+Tucson, Arizona, USA; Division of Pathology and Laboratory Medicine, Mayo Clinic, Rochester,
+Minnesota, USA; Division of Neuroradiology, Mayo Clinic, Rochester, Minnesota, USA; Division of Infectious Diseases, Mayo Clinic, Rochester, Minnesota,
+USA; Division of Neuroradiology, Mayo Clinic, Rochester, Minnesota, USA; Department of Orthopedic Surgery, Mayo Clinic, Rochester, Minnesota,
+USA; Division of Infectious Diseases, Mayo Clinic, Rochester, Minnesota,
+USA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4306945079</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Utility of disc space aspirate cell counts and differentials in the diagnosis of native vertebral osteomyelitis</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-10-20</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Journal of bone and joint infection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>https://doi.org/10.5194/jbji-7-213-2022</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36415688</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://doi.org/10.5194/jbji-7-213-2022</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
